--- a/xlsx/AttributeValues.xlsx
+++ b/xlsx/AttributeValues.xlsx
@@ -5,24 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_work\AAA\Fantastic\Tools\egen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git_work\AAA\Fantastic\Tools\egen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14835"/>
   </bookViews>
   <sheets>
     <sheet name="AttributeValues" sheetId="7" r:id="rId1"/>
     <sheet name="Alias" sheetId="9" r:id="rId2"/>
-    <sheet name="AttributeValuesID" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>唯一ID</t>
   </si>
@@ -125,30 +123,6 @@
   </si>
   <si>
     <t>&lt;float&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;int&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>!desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttributeValues字段List对应的Attribute表ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDs</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -562,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,160 +789,4 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>